--- a/files/info6540_lab4_data.xlsx
+++ b/files/info6540_lab4_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philippe\Documents\GitHub\info6540\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E089CE38-9165-4D26-AEF3-DBAD3ECFE353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2784E-180A-4DD0-8A29-896ABBC03604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{AC3D099D-56CD-412E-8A3A-76C1E03A4DA5}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7310" xr2:uid="{AC3D099D-56CD-412E-8A3A-76C1E03A4DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="boxes data" sheetId="1" r:id="rId1"/>
@@ -805,22 +805,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F65FCC-577E-4164-AD56-F5A42F95346D}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -858,7 +860,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
@@ -881,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -897,7 +899,7 @@
       </c>
       <c r="W2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>101</v>
       </c>
@@ -920,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -936,7 +938,7 @@
       </c>
       <c r="W3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>101</v>
       </c>
@@ -959,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -975,7 +977,7 @@
       </c>
       <c r="W4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>101</v>
       </c>
@@ -998,10 +1000,10 @@
         <v>6</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1014,7 +1016,7 @@
       </c>
       <c r="W5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>103</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -1053,7 +1055,7 @@
       </c>
       <c r="W6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>103</v>
       </c>
@@ -1076,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>103</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1131,7 +1133,7 @@
       </c>
       <c r="W8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>103</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>6</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -1170,7 +1172,7 @@
       </c>
       <c r="W9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>102</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1209,7 +1211,7 @@
       </c>
       <c r="W10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>102</v>
       </c>
@@ -1232,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="H11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1248,7 +1250,7 @@
       </c>
       <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>102</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>14</v>
       </c>
       <c r="H12">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1287,7 +1289,7 @@
       </c>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>102</v>
       </c>
@@ -1310,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1326,7 +1328,7 @@
       </c>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>102</v>
       </c>
@@ -1349,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1365,7 +1367,7 @@
       </c>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>102</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>17</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1404,7 +1406,7 @@
       </c>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>102</v>
       </c>
@@ -1427,7 +1429,7 @@
         <v>18</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1443,7 +1445,7 @@
       </c>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>103</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1482,7 +1484,7 @@
       </c>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>103</v>
       </c>
@@ -1505,7 +1507,7 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1521,7 +1523,7 @@
       </c>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>103</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1560,7 +1562,7 @@
       </c>
       <c r="W19" s="1"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>103</v>
       </c>
@@ -1583,7 +1585,7 @@
         <v>6</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1613,12 +1615,12 @@
       <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>90</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>93</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>94</v>
       </c>
@@ -1735,9 +1737,9 @@
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>73</v>
       </c>
@@ -1793,7 +1795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1843,14 +1845,14 @@
         <v>5</v>
       </c>
       <c r="Q2">
-        <f>P2*N2</f>
+        <f t="shared" ref="Q2:Q15" si="0">P2*N2</f>
         <v>0.25</v>
       </c>
       <c r="R2">
         <v>9.85</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1900,14 +1902,14 @@
         <v>12</v>
       </c>
       <c r="Q3">
-        <f>P3*N3</f>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
       <c r="R3">
         <v>9.85</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1957,14 +1959,14 @@
         <v>2</v>
       </c>
       <c r="Q4">
-        <f>P4*N4</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="R4">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2014,14 +2016,14 @@
         <v>96</v>
       </c>
       <c r="Q5">
-        <f>P5*N5</f>
+        <f t="shared" si="0"/>
         <v>38.400000000000006</v>
       </c>
       <c r="R5">
         <v>38.799999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2071,14 +2073,14 @@
         <v>7</v>
       </c>
       <c r="Q6">
-        <f>P6*N6</f>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="R6">
         <v>670.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2128,14 +2130,14 @@
         <v>1112</v>
       </c>
       <c r="Q7">
-        <f>P7*N7</f>
+        <f t="shared" si="0"/>
         <v>667.19999999999993</v>
       </c>
       <c r="R7">
         <v>670.7</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2185,14 +2187,14 @@
         <v>25</v>
       </c>
       <c r="Q8">
-        <f>P8*N8</f>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="R8">
         <v>24.5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2242,14 +2244,14 @@
         <v>15</v>
       </c>
       <c r="Q9">
-        <f>P9*N9</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="R9">
         <v>24.5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5</v>
       </c>
@@ -2299,14 +2301,14 @@
         <v>90</v>
       </c>
       <c r="Q10">
-        <f>P10*N10</f>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="R10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -2356,14 +2358,14 @@
         <v>88</v>
       </c>
       <c r="Q11">
-        <f>P11*N11</f>
+        <f t="shared" si="0"/>
         <v>35.200000000000003</v>
       </c>
       <c r="R11">
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2413,14 +2415,14 @@
         <v>17</v>
       </c>
       <c r="Q12">
-        <f>P12*N12</f>
+        <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
       <c r="R12">
         <v>0.17</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2470,14 +2472,14 @@
         <v>34</v>
       </c>
       <c r="Q13">
-        <f>P13*N13</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="R13">
         <v>0.34</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>9</v>
       </c>
@@ -2527,14 +2529,14 @@
         <v>76</v>
       </c>
       <c r="Q14">
-        <f>P14*N14</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="R14">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>10</v>
       </c>
@@ -2584,7 +2586,7 @@
         <v>40</v>
       </c>
       <c r="Q15">
-        <f>P15*N15</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="R15">
@@ -2605,13 +2607,13 @@
       <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -2619,7 +2621,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>73</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>74</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
@@ -2651,7 +2653,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
@@ -2659,7 +2661,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>109</v>
       </c>
@@ -2667,7 +2669,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>77</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>79</v>
       </c>
@@ -2707,7 +2709,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2715,7 +2717,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -2723,7 +2725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>80</v>
       </c>
@@ -2731,7 +2733,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>98</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -2747,7 +2749,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>99</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>100</v>
       </c>
